--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周\Desktop\基线功能测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC50C076-B233-48F7-B873-0B12E783283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5B2C6D-8FD3-470C-9927-7C98F349AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,8 +974,8 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周\Desktop\基线功能测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5B2C6D-8FD3-470C-9927-7C98F349AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4F87E-23FC-4B1F-B598-E30387A6CEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,36 +422,6 @@
   </si>
   <si>
     <t>客户名:小明
-交易地址：杭州
-联系电话：19812345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名:小明
-交易地址：杭州
-联系电话：1981234567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名:小明
-交易地址：杭州
-联系电话：198123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名:小明
-交易地址：杭州
-联系电话：aaaaaaaaaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名:小明
-交易地址：杭州
-联系电话：（无）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名:小明
 交易地址：（无）
 联系电话：123</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,18 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户名：
-交易地址：杭州
-联系电话：19812345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名：小明123456789
-交易地址：杭州
-联系电话：19812345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示客户名不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,62 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品名：pen
-商品价格:3.3
-商品图片：（有）
-商品描述：好笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：pen
-商品价格:3.3
-商品图片：（有）
-商品描述：（无）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：（p*21）
-商品价格:3.3
-商品图片：（有）
-商品描述：（无）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：pen
-商品价格:-7
-商品图片：（有）
-商品描述：好笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：pen
-商品价格:3.3
-商品图片：（无）
-商品描述：好笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：pen
-商品价格:3.3
-商品图片：（有）
-商品描述：（好*101）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：（无）
-商品价格:3.3
-商品图片：（有）
-商品描述：好笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名：pen
-商品价格:（无）
-商品图片：（有）
-商品描述：好笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商家登录，有交易过的商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +507,101 @@
   <si>
     <t>1.打开商品记录页面
 2.点击查看历史申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家浏览商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：宝克黑色直液式中性签字笔
+商品价格:3.3
+商品图片：hero pen.jpg
+商品描述：（无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：宝克黑色直液式中性签字笔宝克黑色直液式中性
+商品价格:3.3
+商品图片：hero pen.jpg
+商品描述：（无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：宝克黑色直液式中性签字笔
+商品价格:（无）
+商品图片：hero pen.jpg
+商品描述：非常适合纯色或粉末色颜料，搭配淡水彩蜡笔、记号笔和铅笔来传播并平滑颜色或油墨 - 非常棒，适合书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：（无）
+商品价格:3.3
+商品图片：hero pen.jpg
+商品描述：非常适合纯色或粉末色颜料，搭配淡水彩蜡笔、记号笔和铅笔来传播并平滑颜色或油墨 - 非常棒，适合书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：宝克黑色直液式中性签字笔
+商品价格:3.3
+商品图片：hero pen.jpg
+商品描述：非常适合纯色或粉末色颜料，搭配淡水彩蜡笔、记号笔和铅笔来传播并平滑颜色或油墨 - 非常棒，适合书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：宝克黑色直液式中性签字笔
+商品价格:-7
+商品图片：hero pen.jpg
+商品描述：非常适合纯色或粉末色颜料，搭配淡水彩蜡笔、记号笔和铅笔来传播并平滑颜色或油墨 - 非常棒，适合书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名：宝克黑色直液式中性签字笔
+商品价格:3.3
+商品图片：hero pen.jpg
+商品描述：非常适合纯色或粉末色颜料，搭配淡水彩蜡笔、记号笔和铅笔来传播并平滑颜色或油墨 - 非常棒，适合书写，非常适合纯色或粉末色颜料，搭配淡水彩蜡笔、记号笔和铅笔来传播并平滑颜色或油墨 - 非常棒，适合书写！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名:小明
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：（无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名:小明
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：aaaaaaaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名:小明
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：198123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名:小明
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：1981234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名：小明123456789
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：19812345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名：（无）
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：19812345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名:小明
+交易地址：浙江省杭州市江干区白杨街道浙江工商大学钱江湾生活区
+联系电话：19812345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,8 +971,8 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1131,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>24</v>
@@ -1156,7 +1153,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>25</v>
@@ -1178,7 +1175,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>26</v>
@@ -1200,7 +1197,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>27</v>
@@ -1222,7 +1219,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>28</v>
@@ -1244,7 +1241,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>29</v>
@@ -1266,7 +1263,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>25</v>
@@ -1288,7 +1285,7 @@
         <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>26</v>
@@ -1310,7 +1307,7 @@
         <v>82</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
@@ -1318,7 +1315,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1329,10 +1326,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>38</v>
@@ -1340,7 +1337,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1351,10 +1348,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -1362,7 +1359,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1373,10 +1370,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>90</v>
@@ -1384,7 +1381,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1395,10 +1392,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>85</v>
@@ -1406,7 +1403,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1417,10 +1414,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>86</v>
@@ -1428,7 +1425,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="191.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1439,10 +1436,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>87</v>
@@ -1450,7 +1447,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="121.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -1461,10 +1458,10 @@
         <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>89</v>
@@ -1472,7 +1469,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
@@ -1483,10 +1480,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>88</v>
@@ -1508,7 +1505,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>42</v>
@@ -1530,7 +1527,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>45</v>
@@ -1552,7 +1549,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>49</v>
@@ -1572,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>55</v>
@@ -1586,13 +1583,13 @@
         <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>57</v>
@@ -1603,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>58</v>
@@ -1626,13 +1623,13 @@
         <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>64</v>
@@ -1646,16 +1643,16 @@
         <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="87" x14ac:dyDescent="0.25">
@@ -1666,16 +1663,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="87" x14ac:dyDescent="0.25">
@@ -1686,13 +1683,13 @@
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>92</v>
@@ -1700,19 +1697,19 @@
     </row>
     <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>92</v>
@@ -1726,13 +1723,13 @@
         <v>63</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>93</v>
@@ -1740,19 +1737,19 @@
     </row>
     <row r="36" spans="1:6" ht="87" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>95</v>
@@ -1760,19 +1757,19 @@
     </row>
     <row r="37" spans="1:6" ht="87" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>96</v>
